--- a/deployment/Omaha_Cal_Info_CP02PMUI_00006.xlsx
+++ b/deployment/Omaha_Cal_Info_CP02PMUI_00006.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\# OOI_Asset_Management\CP_mod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13032" yWindow="6300" windowWidth="21480" windowHeight="11232" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="13035" yWindow="6300" windowWidth="21480" windowHeight="11235" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$97</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$406</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="68">
   <si>
     <t>Ref Des</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>Sensor OOIBARCODE</t>
+  </si>
+  <si>
+    <t>OL000338</t>
   </si>
 </sst>
 </file>
@@ -955,25 +958,25 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="7" width="16" customWidth="1"/>
-    <col min="8" max="9" width="19.109375" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" customWidth="1"/>
-    <col min="14" max="14" width="13.44140625" customWidth="1"/>
+    <col min="8" max="9" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>55</v>
       </c>
@@ -1011,7 +1014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -1030,7 +1033,9 @@
       <c r="F2" s="7">
         <v>6.25E-2</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2">
+        <v>42510</v>
+      </c>
       <c r="H2" s="3" t="s">
         <v>51</v>
       </c>
@@ -1053,7 +1058,7 @@
         <v>-70.769533333333328</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
@@ -1072,24 +1077,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="47" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1115,7 +1120,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>49</v>
       </c>
@@ -1145,7 +1150,7 @@
       </c>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>49</v>
       </c>
@@ -1173,7 +1178,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>49</v>
       </c>
@@ -1201,7 +1206,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
@@ -1213,7 +1218,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>38</v>
       </c>
@@ -1237,10 +1242,11 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7" s="24"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
@@ -1268,7 +1274,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
@@ -1296,7 +1302,7 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
@@ -1324,7 +1330,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>18</v>
       </c>
@@ -1352,7 +1358,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
@@ -1380,7 +1386,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
@@ -1408,7 +1414,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1436,7 +1442,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>18</v>
       </c>
@@ -1464,7 +1470,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
@@ -1476,7 +1482,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
@@ -1504,7 +1510,7 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>25</v>
       </c>
@@ -1532,7 +1538,7 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
@@ -1544,7 +1550,7 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>47</v>
       </c>
@@ -1572,7 +1578,7 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>47</v>
       </c>
@@ -1600,7 +1606,7 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
@@ -1612,7 +1618,7 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
@@ -1642,7 +1648,7 @@
       </c>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>28</v>
       </c>
@@ -1670,7 +1676,7 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>28</v>
       </c>
@@ -1698,7 +1704,7 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>28</v>
       </c>
@@ -1726,7 +1732,7 @@
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>28</v>
       </c>
@@ -1756,7 +1762,7 @@
       </c>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>28</v>
       </c>
@@ -1786,7 +1792,7 @@
       </c>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>28</v>
       </c>
@@ -1814,7 +1820,7 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>28</v>
       </c>
@@ -1842,7 +1848,7 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1870,7 +1876,7 @@
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>28</v>
       </c>
@@ -1900,7 +1906,7 @@
       </c>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
@@ -1912,7 +1918,7 @@
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>35</v>
       </c>
@@ -1940,7 +1946,7 @@
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>35</v>
       </c>
@@ -1968,7 +1974,7 @@
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -1980,7 +1986,7 @@
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>46</v>
       </c>
@@ -2004,10 +2010,11 @@
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F38" s="24"/>
-    </row>
-    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>45</v>
       </c>
@@ -2020,7 +2027,9 @@
       <c r="D39" s="6">
         <v>6</v>
       </c>
-      <c r="E39" s="9"/>
+      <c r="E39" t="s">
+        <v>67</v>
+      </c>
       <c r="F39" s="25">
         <v>1003</v>
       </c>
@@ -2029,7 +2038,7 @@
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="9"/>

--- a/deployment/Omaha_Cal_Info_CP02PMUI_00006.xlsx
+++ b/deployment/Omaha_Cal_Info_CP02PMUI_00006.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13035" yWindow="6300" windowWidth="21480" windowHeight="11235" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="13035" yWindow="6300" windowWidth="21480" windowHeight="11235" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -957,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,7 +1034,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="G2" s="2">
-        <v>42510</v>
+        <v>42511</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>51</v>
@@ -1077,7 +1077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>

--- a/deployment/Omaha_Cal_Info_CP02PMUI_00006.xlsx
+++ b/deployment/Omaha_Cal_Info_CP02PMUI_00006.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13035" yWindow="6300" windowWidth="21480" windowHeight="11235" tabRatio="377"/>
+    <workbookView xWindow="13040" yWindow="6300" windowWidth="21480" windowHeight="11240" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$97</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$406</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -711,7 +706,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -746,7 +741,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -958,25 +953,25 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="7" width="16" customWidth="1"/>
-    <col min="8" max="9" width="19.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="8" max="9" width="19.1640625" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="14" max="14" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="28">
       <c r="A1" s="30" t="s">
         <v>55</v>
       </c>
@@ -1014,7 +1009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -1031,7 +1026,7 @@
         <v>42293</v>
       </c>
       <c r="F2" s="7">
-        <v>6.25E-2</v>
+        <v>0.79236111111111107</v>
       </c>
       <c r="G2" s="2">
         <v>42511</v>
@@ -1058,7 +1053,7 @@
         <v>-70.769533333333328</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
@@ -1081,20 +1076,20 @@
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="47" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +1115,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15">
       <c r="A2" s="8" t="s">
         <v>49</v>
       </c>
@@ -1150,7 +1145,7 @@
       </c>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15">
       <c r="A3" s="8" t="s">
         <v>49</v>
       </c>
@@ -1178,7 +1173,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15">
       <c r="A4" s="8" t="s">
         <v>49</v>
       </c>
@@ -1206,7 +1201,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
@@ -1218,7 +1213,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15">
       <c r="A6" s="8" t="s">
         <v>38</v>
       </c>
@@ -1242,11 +1237,11 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="F7" s="24"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15">
       <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
@@ -1274,7 +1269,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15">
       <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
@@ -1302,7 +1297,7 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15">
       <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
@@ -1330,7 +1325,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15">
       <c r="A11" s="8" t="s">
         <v>18</v>
       </c>
@@ -1358,7 +1353,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15">
       <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
@@ -1386,7 +1381,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15">
       <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
@@ -1414,7 +1409,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15">
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1442,7 +1437,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15">
       <c r="A15" s="8" t="s">
         <v>18</v>
       </c>
@@ -1470,7 +1465,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
@@ -1482,7 +1477,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15">
       <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
@@ -1510,7 +1505,7 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15">
       <c r="A18" s="8" t="s">
         <v>25</v>
       </c>
@@ -1538,7 +1533,7 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
@@ -1550,7 +1545,7 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15">
       <c r="A20" s="8" t="s">
         <v>47</v>
       </c>
@@ -1578,7 +1573,7 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15">
       <c r="A21" s="8" t="s">
         <v>47</v>
       </c>
@@ -1606,7 +1601,7 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
@@ -1618,7 +1613,7 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15">
       <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
@@ -1648,7 +1643,7 @@
       </c>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15">
       <c r="A24" s="8" t="s">
         <v>28</v>
       </c>
@@ -1676,7 +1671,7 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="15">
       <c r="A25" s="8" t="s">
         <v>28</v>
       </c>
@@ -1704,7 +1699,7 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15">
       <c r="A26" s="8" t="s">
         <v>28</v>
       </c>
@@ -1732,7 +1727,7 @@
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15">
       <c r="A27" s="8" t="s">
         <v>28</v>
       </c>
@@ -1762,7 +1757,7 @@
       </c>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15">
       <c r="A28" s="8" t="s">
         <v>28</v>
       </c>
@@ -1792,7 +1787,7 @@
       </c>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15">
       <c r="A29" s="8" t="s">
         <v>28</v>
       </c>
@@ -1820,7 +1815,7 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="15">
       <c r="A30" s="8" t="s">
         <v>28</v>
       </c>
@@ -1848,7 +1843,7 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15">
       <c r="A31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1876,7 +1871,7 @@
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15">
       <c r="A32" s="8" t="s">
         <v>28</v>
       </c>
@@ -1906,7 +1901,7 @@
       </c>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
@@ -1918,7 +1913,7 @@
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="15">
       <c r="A34" s="8" t="s">
         <v>35</v>
       </c>
@@ -1946,7 +1941,7 @@
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="15">
       <c r="A35" s="8" t="s">
         <v>35</v>
       </c>
@@ -1974,7 +1969,7 @@
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -1986,7 +1981,7 @@
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="15">
       <c r="A37" s="8" t="s">
         <v>46</v>
       </c>
@@ -2010,11 +2005,11 @@
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="F38" s="24"/>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="15">
       <c r="A39" s="8" t="s">
         <v>45</v>
       </c>
@@ -2038,7 +2033,7 @@
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="9"/>
